--- a/teaching/traditional_assets/database/data/norway/norway_semiconductor_equip.xlsx
+++ b/teaching/traditional_assets/database/data/norway/norway_semiconductor_equip.xlsx
@@ -591,25 +591,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.184</v>
+        <v>-0.209</v>
       </c>
       <c r="G2">
-        <v>-0.009588268471517201</v>
+        <v>-0.1375212224108659</v>
       </c>
       <c r="H2">
-        <v>-0.0242526790750141</v>
+        <v>-0.1528013582342954</v>
       </c>
       <c r="I2">
-        <v>-0.2919715961704001</v>
+        <v>-0.3516079613987593</v>
       </c>
       <c r="J2">
-        <v>-0.2919715961704001</v>
+        <v>-0.3516079613987593</v>
       </c>
       <c r="K2">
-        <v>-89.59999999999999</v>
+        <v>-65.59999999999999</v>
       </c>
       <c r="L2">
-        <v>-0.5053581500282007</v>
+        <v>-0.5568760611205432</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -633,73 +633,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>46.2</v>
+        <v>35.9</v>
       </c>
       <c r="V2">
-        <v>0.5416178194607268</v>
+        <v>0.05132237312365975</v>
       </c>
       <c r="W2">
-        <v>-0.8057553956834531</v>
+        <v>-1.547169811320755</v>
       </c>
       <c r="X2">
-        <v>0.298452298896502</v>
+        <v>0.1110990850464327</v>
       </c>
       <c r="Y2">
-        <v>-1.104207694579955</v>
+        <v>-1.658268896367187</v>
       </c>
       <c r="Z2">
-        <v>0.7534010768076802</v>
+        <v>0.6651718584966781</v>
       </c>
       <c r="AA2">
-        <v>-0.2199717149520366</v>
+        <v>-0.233879721145841</v>
       </c>
       <c r="AB2">
-        <v>0.1113200525224159</v>
+        <v>0.09008362419156583</v>
       </c>
       <c r="AC2">
-        <v>-0.3312917674744525</v>
+        <v>-0.3239633453374068</v>
       </c>
       <c r="AD2">
-        <v>180.8</v>
+        <v>220.3</v>
       </c>
       <c r="AE2">
-        <v>32.33282000505978</v>
+        <v>0.09708926386920136</v>
       </c>
       <c r="AF2">
-        <v>213.1328200050598</v>
+        <v>220.3970892638692</v>
       </c>
       <c r="AG2">
-        <v>166.9328200050598</v>
+        <v>184.4970892638692</v>
       </c>
       <c r="AH2">
-        <v>0.7141735282381013</v>
+        <v>0.239588853836072</v>
       </c>
       <c r="AI2">
-        <v>0.8340721947217565</v>
+        <v>1.095428815944843</v>
       </c>
       <c r="AJ2">
-        <v>0.6618203769109472</v>
+        <v>0.2087078017615482</v>
       </c>
       <c r="AK2">
-        <v>0.797451732609463</v>
+        <v>1.116154495433071</v>
       </c>
       <c r="AL2">
-        <v>17.5</v>
+        <v>19.9</v>
       </c>
       <c r="AM2">
-        <v>16.9</v>
+        <v>19.5</v>
       </c>
       <c r="AN2">
-        <v>-66.96296296296299</v>
+        <v>-314.7142857142857</v>
       </c>
       <c r="AO2">
-        <v>-3.434285714285714</v>
+        <v>-2.085427135678392</v>
       </c>
       <c r="AP2">
-        <v>-61.82697037224438</v>
+        <v>-263.567270376956</v>
       </c>
       <c r="AQ2">
-        <v>-3.556213017751479</v>
+        <v>-2.128205128205128</v>
       </c>
     </row>
     <row r="3">
@@ -710,7 +710,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>REC Silicon ASA (OB:REC)</t>
+          <t>REC Silicon ASA (OB:RECSI)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -719,25 +719,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.184</v>
+        <v>-0.209</v>
       </c>
       <c r="G3">
-        <v>-0.009588268471517201</v>
+        <v>-0.1375212224108659</v>
       </c>
       <c r="H3">
-        <v>-0.0242526790750141</v>
+        <v>-0.1528013582342954</v>
       </c>
       <c r="I3">
-        <v>-0.2919715961704001</v>
+        <v>-0.3516079613987593</v>
       </c>
       <c r="J3">
-        <v>-0.2919715961704001</v>
+        <v>-0.3516079613987593</v>
       </c>
       <c r="K3">
-        <v>-89.59999999999999</v>
+        <v>-65.59999999999999</v>
       </c>
       <c r="L3">
-        <v>-0.5053581500282007</v>
+        <v>-0.5568760611205432</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -761,73 +761,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>46.2</v>
+        <v>35.9</v>
       </c>
       <c r="V3">
-        <v>0.5416178194607268</v>
+        <v>0.05132237312365975</v>
       </c>
       <c r="W3">
-        <v>-0.8057553956834531</v>
+        <v>-1.547169811320755</v>
       </c>
       <c r="X3">
-        <v>0.298452298896502</v>
+        <v>0.1110990850464327</v>
       </c>
       <c r="Y3">
-        <v>-1.104207694579955</v>
+        <v>-1.658268896367187</v>
       </c>
       <c r="Z3">
-        <v>0.7534010768076802</v>
+        <v>0.6651718584966781</v>
       </c>
       <c r="AA3">
-        <v>-0.2199717149520366</v>
+        <v>-0.233879721145841</v>
       </c>
       <c r="AB3">
-        <v>0.1113200525224159</v>
+        <v>0.09008362419156583</v>
       </c>
       <c r="AC3">
-        <v>-0.3312917674744525</v>
+        <v>-0.3239633453374068</v>
       </c>
       <c r="AD3">
-        <v>180.8</v>
+        <v>220.3</v>
       </c>
       <c r="AE3">
-        <v>32.33282000505978</v>
+        <v>0.09708926386920136</v>
       </c>
       <c r="AF3">
-        <v>213.1328200050598</v>
+        <v>220.3970892638692</v>
       </c>
       <c r="AG3">
-        <v>166.9328200050598</v>
+        <v>184.4970892638692</v>
       </c>
       <c r="AH3">
-        <v>0.7141735282381013</v>
+        <v>0.239588853836072</v>
       </c>
       <c r="AI3">
-        <v>0.8340721947217565</v>
+        <v>1.095428815944843</v>
       </c>
       <c r="AJ3">
-        <v>0.6618203769109472</v>
+        <v>0.2087078017615482</v>
       </c>
       <c r="AK3">
-        <v>0.797451732609463</v>
+        <v>1.116154495433071</v>
       </c>
       <c r="AL3">
-        <v>17.5</v>
+        <v>19.9</v>
       </c>
       <c r="AM3">
-        <v>16.9</v>
+        <v>19.5</v>
       </c>
       <c r="AN3">
-        <v>-66.96296296296299</v>
+        <v>-314.7142857142857</v>
       </c>
       <c r="AO3">
-        <v>-3.434285714285714</v>
+        <v>-2.085427135678392</v>
       </c>
       <c r="AP3">
-        <v>-61.82697037224438</v>
+        <v>-263.567270376956</v>
       </c>
       <c r="AQ3">
-        <v>-3.556213017751479</v>
+        <v>-2.128205128205128</v>
       </c>
     </row>
   </sheetData>
